--- a/medicine/Enfance/Prix_Astrid-Lindgren/Prix_Astrid-Lindgren.xlsx
+++ b/medicine/Enfance/Prix_Astrid-Lindgren/Prix_Astrid-Lindgren.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le prix Astrid-Lindgren est un prix littéraire suédois de littérature jeunesse, nommé ainsi en l'honneur de l'écrivaine suédoise Astrid Lindgren.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il fut créé par la maison d'édition Rabén &amp; Sjögren en 1967 pour honorer l'anniversaire des 60 ans de Lindgren[1].
-Il récompense chaque année, le 14 novembre qui est le jour de l'anniversaire de Lindgren, un écrivain ou une écrivaine pour enfants et jeunes adultes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fut créé par la maison d'édition Rabén &amp; Sjögren en 1967 pour honorer l'anniversaire des 60 ans de Lindgren.
+Il récompense chaque année, le 14 novembre qui est le jour de l'anniversaire de Lindgren, un écrivain ou une écrivaine pour enfants et jeunes adultes.
 Bien que leur nom soit ressemblant, ce prix est différent du prix commémoratif Astrid-Lindgren.
 </t>
         </is>
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
